--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tgfa-Erbb4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tgfa-Erbb4.xlsx
@@ -534,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.07757</v>
+        <v>0.08661466666666667</v>
       </c>
       <c r="H2">
-        <v>3.23271</v>
+        <v>0.259844</v>
       </c>
       <c r="I2">
-        <v>0.7762391405615933</v>
+        <v>0.5374496355558498</v>
       </c>
       <c r="J2">
-        <v>0.7762391405615933</v>
+        <v>0.5374496355558498</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.006842928689999999</v>
+        <v>0.0005500320048888889</v>
       </c>
       <c r="R2">
-        <v>0.06158635821</v>
+        <v>0.004950288044</v>
       </c>
       <c r="S2">
-        <v>0.7762391405615933</v>
+        <v>0.5374496355558498</v>
       </c>
       <c r="T2">
-        <v>0.7762391405615933</v>
+        <v>0.5374496355558498</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>0.116376</v>
       </c>
       <c r="I3">
-        <v>0.02794423447262389</v>
+        <v>0.2407068810034004</v>
       </c>
       <c r="J3">
-        <v>0.02794423447262389</v>
+        <v>0.2407068810034003</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -632,10 +632,10 @@
         <v>0.002217079176</v>
       </c>
       <c r="S3">
-        <v>0.02794423447262389</v>
+        <v>0.2407068810034004</v>
       </c>
       <c r="T3">
-        <v>0.02794423447262389</v>
+        <v>0.2407068810034003</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.2718313333333333</v>
+        <v>0.035752</v>
       </c>
       <c r="H4">
-        <v>0.8154939999999999</v>
+        <v>0.107256</v>
       </c>
       <c r="I4">
-        <v>0.1958166249657829</v>
+        <v>0.2218434834407499</v>
       </c>
       <c r="J4">
-        <v>0.1958166249657829</v>
+        <v>0.2218434834407499</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.001726219577111111</v>
+        <v>0.0002270371173333333</v>
       </c>
       <c r="R4">
-        <v>0.015535976194</v>
+        <v>0.002043334056</v>
       </c>
       <c r="S4">
-        <v>0.1958166249657829</v>
+        <v>0.2218434834407499</v>
       </c>
       <c r="T4">
-        <v>0.1958166249657829</v>
+        <v>0.2218434834407499</v>
       </c>
     </row>
   </sheetData>
